--- a/2024/chemical-engineering/surface-area/粉体　表.xlsx
+++ b/2024/chemical-engineering/surface-area/粉体　表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kosenjp-my.sharepoint.com/personal/ak20002_stu_tomakomai-ct_ac_jp/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nami/Git/experimental-data/2024/chemical-engineering/surface-area/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFBB6569-4E45-8C4D-A598-565D986FA90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25FEC75-9338-C94A-AE9E-58189A58DB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="9096" windowHeight="11652" xr2:uid="{02EC7604-79C8-4E34-A7B7-A07661B8D7F9}"/>
+    <workbookView xWindow="17140" yWindow="860" windowWidth="17060" windowHeight="21380" xr2:uid="{02EC7604-79C8-4E34-A7B7-A07661B8D7F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="22">
   <si>
     <t>ε</t>
     <phoneticPr fontId="1"/>
@@ -105,9 +105,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※ε5のみ厚さ0.5</t>
-  </si>
-  <si>
     <t>定めた値</t>
   </si>
   <si>
@@ -131,11 +128,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="178" formatCode="0.000000000"/>
-    <numFmt numFmtId="181" formatCode="0.0000000E+00"/>
-    <numFmt numFmtId="277" formatCode="0.00000E+00"/>
+    <numFmt numFmtId="176" formatCode="0.000000000"/>
+    <numFmt numFmtId="177" formatCode="0.0000000E+00"/>
+    <numFmt numFmtId="178" formatCode="0.00000E+00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,7 +180,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -196,26 +193,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="277" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -306,19 +297,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.61</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.64</c:v>
+                  <c:v>0.58000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.67</c:v>
+                  <c:v>0.60000000000000009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1166,9 +1157,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1206,7 +1197,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1312,7 +1303,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1454,7 +1445,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1464,24 +1455,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB067BD-CFE4-4BB0-A3EF-1115B4848CEB}">
   <dimension ref="A1:X79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="AF28" sqref="AF28"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="134" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2:X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="5" max="5" width="13.484375" customWidth="1"/>
-    <col min="6" max="6" width="15.4453125" customWidth="1"/>
-    <col min="9" max="9" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.03125" customWidth="1"/>
-    <col min="14" max="14" width="11.3984375" customWidth="1"/>
-    <col min="20" max="24" width="11.765625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.2578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="11.5234375" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="12.2578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" customWidth="1"/>
+    <col min="15" max="17" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="24" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1522,8 +1518,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:24">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1">
@@ -1533,59 +1529,65 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>286</v>
+        <v>34.42</v>
       </c>
       <c r="E2">
         <f>(14/4.5)*((1/I2)*($M$2^3)/(1-$M$2)^2)^0.5</f>
-        <v>15910.030720104462</v>
+        <v>4305.7312230924463</v>
       </c>
       <c r="F2">
         <f>6/(4.5*E2)</f>
-        <v>8.3804573151985656E-5</v>
-      </c>
-      <c r="I2" s="10">
+        <v>3.0966478496902361E-4</v>
+      </c>
+      <c r="I2" s="6">
         <f>($K$2 * 0.3*C2) / (2 * B2 * D2)</f>
-        <v>3.1416083916083912E-8</v>
+        <v>2.6104009296920387E-7</v>
       </c>
       <c r="K2">
         <v>1.797E-4</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M2">
-        <v>0.55000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="N2">
-        <v>0.57999999999999996</v>
+        <v>0.54</v>
       </c>
       <c r="O2">
-        <v>0.61</v>
+        <f>N2+0.02</f>
+        <v>0.56000000000000005</v>
       </c>
       <c r="P2">
-        <v>0.64</v>
+        <f t="shared" ref="P2:Q2" si="0">O2+0.02</f>
+        <v>0.58000000000000007</v>
       </c>
       <c r="Q2">
-        <v>0.67</v>
+        <f t="shared" si="0"/>
+        <v>0.60000000000000009</v>
       </c>
       <c r="T2">
-        <v>0.55000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="U2">
-        <v>0.57999999999999996</v>
+        <v>0.54</v>
       </c>
       <c r="V2">
-        <v>0.61</v>
+        <f>U2+0.02</f>
+        <v>0.56000000000000005</v>
       </c>
       <c r="W2">
-        <v>0.64</v>
+        <f t="shared" ref="W2:X2" si="1">V2+0.02</f>
+        <v>0.58000000000000007</v>
       </c>
       <c r="X2">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
+        <f t="shared" si="1"/>
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="7"/>
       <c r="B3" s="1">
         <v>15</v>
       </c>
@@ -1593,61 +1595,62 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>555</v>
+        <f>D2+33.39</f>
+        <v>67.81</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E10" si="0">(14/4.5)*((1/I3)*($M$2^3)/(1-$M$2)^2)^0.5</f>
-        <v>15671.822182681741</v>
+        <f t="shared" ref="E3:E10" si="2">(14/4.5)*((1/I3)*($M$2^3)/(1-$M$2)^2)^0.5</f>
+        <v>4273.3981503976802</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F10" si="1">6/(4.5*E3)</f>
-        <v>8.5078385767211091E-5</v>
-      </c>
-      <c r="I3" s="10">
-        <f t="shared" ref="I3:I10" si="2">($K$2 * 0.3*C3) / (2 * B3 * D3)</f>
-        <v>3.2378378378378374E-8</v>
+        <f t="shared" ref="F3:F10" si="3">6/(4.5*E3)</f>
+        <v>3.1200774802817141E-4</v>
+      </c>
+      <c r="I3" s="6">
+        <f t="shared" ref="I3:I10" si="4">($K$2 * 0.3*C3) / (2 * B3 * D3)</f>
+        <v>2.6500516148060754E-7</v>
       </c>
       <c r="L3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M3">
-        <f>(1-M2)*(4.5*2*0.3)</f>
-        <v>1.2149999999999999</v>
+        <f t="shared" ref="M3:P3" si="5">(1-M2)*(2.73*2*1)</f>
+        <v>2.73</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:Q3" si="3">(1-N2)*(4.5*2*0.3)</f>
-        <v>1.1339999999999999</v>
+        <f>(1-N2)*(2.73*2*1)</f>
+        <v>2.5115999999999996</v>
       </c>
       <c r="O3">
-        <f t="shared" si="3"/>
-        <v>1.0529999999999999</v>
+        <f t="shared" si="5"/>
+        <v>2.4023999999999996</v>
       </c>
       <c r="P3">
-        <f t="shared" si="3"/>
-        <v>0.97199999999999986</v>
+        <f t="shared" si="5"/>
+        <v>2.2931999999999997</v>
       </c>
       <c r="Q3">
-        <f>(1-Q2)*(4.5*2*0.5)</f>
-        <v>1.4849999999999999</v>
-      </c>
-      <c r="T3" s="8">
+        <f>(1-Q2)*(2.73*2*1)</f>
+        <v>2.1839999999999997</v>
+      </c>
+      <c r="T3" s="4">
         <v>1.1851800000000001E-4</v>
       </c>
-      <c r="U3" s="8">
+      <c r="U3" s="4">
         <v>9.1298400000000007E-5</v>
       </c>
-      <c r="V3" s="8">
+      <c r="V3" s="4">
         <v>1.5676399999999999E-4</v>
       </c>
-      <c r="W3" s="8">
+      <c r="W3" s="4">
         <v>3.0108799999999997E-4</v>
       </c>
-      <c r="X3" s="8">
+      <c r="X3" s="4">
         <v>5.5424399999999996E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
+    <row r="4" spans="1:24">
+      <c r="A4" s="7"/>
       <c r="B4" s="1">
         <v>15</v>
       </c>
@@ -1655,41 +1658,42 @@
         <v>20</v>
       </c>
       <c r="D4">
-        <v>1119</v>
+        <f>D3+67.92</f>
+        <v>135.73000000000002</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
-        <v>15735.228330435441</v>
+        <f t="shared" si="2"/>
+        <v>4275.1308539707652</v>
       </c>
       <c r="F4">
-        <f t="shared" si="1"/>
-        <v>8.4735556760518637E-5</v>
-      </c>
-      <c r="I4" s="10">
-        <f t="shared" si="2"/>
-        <v>3.2117962466487929E-8</v>
+        <f t="shared" si="3"/>
+        <v>3.1188129179599868E-4</v>
+      </c>
+      <c r="I4" s="6">
+        <f t="shared" si="4"/>
+        <v>2.6479039269137251E-7</v>
       </c>
       <c r="L4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>1.2157</v>
+        <v>2.74</v>
       </c>
       <c r="N4">
-        <v>1.135</v>
+        <v>2.52</v>
       </c>
       <c r="O4">
-        <v>1.0584</v>
+        <v>2.4</v>
       </c>
       <c r="P4">
-        <v>0.97160000000000002</v>
+        <v>2.13</v>
       </c>
       <c r="Q4">
-        <v>1.4858</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="7"/>
       <c r="B5" s="1">
         <v>30</v>
       </c>
@@ -1697,26 +1701,23 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>78</v>
+        <v>9.06</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
-        <v>11750.336417187871</v>
+        <f t="shared" si="2"/>
+        <v>3124.0687311653824</v>
       </c>
       <c r="F5">
-        <f t="shared" si="1"/>
-        <v>1.1347192846180917E-4</v>
-      </c>
-      <c r="I5" s="10">
+        <f t="shared" si="3"/>
+        <v>4.26793853807421E-4</v>
+      </c>
+      <c r="I5" s="6">
         <f>($K$2 * 0.3*C5) / (2 * B5 * D5)</f>
-        <v>5.759615384615384E-8</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
+        <v>4.9586092715231783E-7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="7"/>
       <c r="B6" s="1">
         <v>30</v>
       </c>
@@ -1724,23 +1725,24 @@
         <v>10</v>
       </c>
       <c r="D6">
-        <v>154</v>
+        <f>D5+9.4</f>
+        <v>18.46</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
-        <v>11674.770768965789</v>
+        <f t="shared" si="2"/>
+        <v>3153.2422114614287</v>
       </c>
       <c r="F6">
         <f>6/(4.5*E6)</f>
-        <v>1.1420638226813312E-4</v>
-      </c>
-      <c r="I6" s="10">
-        <f t="shared" si="2"/>
-        <v>5.8344155844155837E-8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
+        <v>4.2284519993006668E-4</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" si="4"/>
+        <v>4.8672806067172251E-7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="7"/>
       <c r="B7" s="1">
         <v>30</v>
       </c>
@@ -1748,23 +1750,24 @@
         <v>20</v>
       </c>
       <c r="D7">
-        <v>309</v>
+        <f>D6+18.96</f>
+        <v>37.42</v>
       </c>
       <c r="E7">
         <f>(14/4.5)*((1/I7)*($M$2^3)/(1-$M$2)^2)^0.5</f>
-        <v>11693.707960274893</v>
+        <v>3174.5222627065123</v>
       </c>
       <c r="F7">
-        <f t="shared" si="1"/>
-        <v>1.1402143253986222E-4</v>
-      </c>
-      <c r="I7" s="10">
-        <f t="shared" si="2"/>
-        <v>5.8155339805825237E-8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
+        <f t="shared" si="3"/>
+        <v>4.2001070491676728E-4</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" si="4"/>
+        <v>4.8022447888829493E-7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="7"/>
       <c r="B8" s="1">
         <v>60</v>
       </c>
@@ -1772,23 +1775,23 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>37</v>
+        <v>3.29</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
-        <v>11445.080702219517</v>
+        <f t="shared" si="2"/>
+        <v>2662.3762348449786</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
-        <v>1.1649837760206995E-4</v>
-      </c>
-      <c r="I8" s="10">
-        <f t="shared" si="2"/>
-        <v>6.0709459459459445E-8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
+        <f t="shared" si="3"/>
+        <v>5.008057523511394E-4</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="4"/>
+        <v>6.8275075987841938E-7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="7"/>
       <c r="B9" s="1">
         <v>60</v>
       </c>
@@ -1796,63 +1799,65 @@
         <v>10</v>
       </c>
       <c r="D9">
-        <v>71</v>
+        <f>D8+3.31</f>
+        <v>6.6</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
-        <v>11210.685619208896</v>
+        <f t="shared" si="2"/>
+        <v>2666.4193294063225</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
-        <v>1.189341471719392E-4</v>
-      </c>
-      <c r="I9" s="10">
-        <f t="shared" si="2"/>
-        <v>6.3274647887323941E-8</v>
+        <f t="shared" si="3"/>
+        <v>5.0004638003813137E-4</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" si="4"/>
+        <v>6.8068181818181807E-7</v>
       </c>
       <c r="N9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
+    <row r="10" spans="1:24" ht="19" thickBot="1">
+      <c r="A10" s="8"/>
       <c r="B10" s="2">
         <v>60</v>
       </c>
       <c r="C10" s="2">
         <v>20</v>
       </c>
-      <c r="D10" s="3">
-        <v>143</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>11250.090611072155</v>
+      <c r="D10">
+        <f>D9+6.85</f>
+        <v>13.45</v>
+      </c>
+      <c r="E10" s="6">
+        <f>(14/4.5)*((1/I10)*($M$2^3)/(1-$M$2)^2)^0.5</f>
+        <v>2691.5510755898313</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
-        <v>1.1851756394042626E-4</v>
-      </c>
-      <c r="I10" s="10">
-        <f t="shared" si="2"/>
-        <v>6.2832167832167823E-8</v>
+        <f t="shared" si="3"/>
+        <v>4.9537731066134211E-4</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" si="4"/>
+        <v>6.6802973977695155E-7</v>
       </c>
       <c r="N10">
         <f>F10</f>
-        <v>1.1851756394042626E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="I11" s="10"/>
+        <v>4.9537731066134211E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="I11" s="6"/>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="N11">
         <f>F21</f>
-        <v>9.1298373381660326E-5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+        <v>3.5326916634649433E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1871,17 +1876,17 @@
       <c r="F12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I12" s="10"/>
+      <c r="I12" s="6"/>
       <c r="K12">
         <v>15</v>
       </c>
       <c r="N12">
         <f>F32</f>
-        <v>1.5676382551736438E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+        <v>1.3961827196064835E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="1">
@@ -1891,30 +1896,31 @@
         <v>5</v>
       </c>
       <c r="D13">
-        <v>115</v>
+        <f>8.07</f>
+        <v>8.07</v>
       </c>
       <c r="E13">
         <f>(14/4.5)*((1/I13)*($N$2^3)/(1-$N$2)^2)^0.5</f>
-        <v>11705.719183171388</v>
+        <v>2543.4667031188937</v>
       </c>
       <c r="F13">
         <f>6/(4.5*E13)</f>
-        <v>1.1390443529947198E-4</v>
-      </c>
-      <c r="I13" s="10">
+        <v>5.2421890630545713E-4</v>
+      </c>
+      <c r="I13" s="6">
         <f>($K$2 *0.3* C13) / (2 * B13 * D13)</f>
-        <v>7.8130434782608692E-8</v>
+        <v>1.1133828996282525E-6</v>
       </c>
       <c r="K13">
         <v>30</v>
       </c>
       <c r="N13">
         <f>F43</f>
-        <v>7.2787103072887322E-5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
+        <v>3.0508636207155258E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="7"/>
       <c r="B14" s="1">
         <v>15</v>
       </c>
@@ -1922,30 +1928,31 @@
         <v>10</v>
       </c>
       <c r="D14">
-        <v>227</v>
+        <f>D13+8.42</f>
+        <v>16.490000000000002</v>
       </c>
       <c r="E14">
-        <f t="shared" ref="E14:E21" si="4">(14/4.5)*((1/I14)*($N$2^3)/(1-$N$2)^2)^0.5</f>
-        <v>11629.12695929184</v>
+        <f>(14/4.5)*((1/I14)*($N$2^3)/(1-$N$2)^2)^0.5</f>
+        <v>2570.8966550926725</v>
       </c>
       <c r="F14">
-        <f t="shared" ref="F14:F21" si="5">6/(4.5*E14)</f>
-        <v>1.1465463727420921E-4</v>
-      </c>
-      <c r="I14" s="10">
-        <f t="shared" ref="I14:I21" si="6">($K$2 *0.3* C14) / (2 * B14 * D14)</f>
-        <v>7.9162995594713652E-8</v>
+        <f t="shared" ref="F14:F21" si="6">6/(4.5*E14)</f>
+        <v>5.1862579955990926E-4</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" ref="I14:I21" si="7">($K$2 *0.3* C14) / (2 * B14 * D14)</f>
+        <v>1.0897513644633108E-6</v>
       </c>
       <c r="K14">
         <v>60</v>
       </c>
       <c r="N14">
         <f>F54</f>
-        <v>2.6671310061885918E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
+        <v>4.1552651570397306E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="7"/>
       <c r="B15" s="1">
         <v>15</v>
       </c>
@@ -1953,23 +1960,24 @@
         <v>20</v>
       </c>
       <c r="D15">
-        <v>459</v>
+        <f>D14+16.67</f>
+        <v>33.160000000000004</v>
       </c>
       <c r="E15">
-        <f t="shared" si="4"/>
-        <v>11692.988652832812</v>
+        <f>(14/4.5)*((1/I15)*($N$2^3)/(1-$N$2)^2)^0.5</f>
+        <v>2577.9028966665578</v>
       </c>
       <c r="F15">
-        <f t="shared" si="5"/>
-        <v>1.1402844669744141E-4</v>
-      </c>
-      <c r="I15" s="10">
         <f t="shared" si="6"/>
-        <v>7.8300653594771229E-8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
+        <v>5.1721627492542252E-4</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="7"/>
+        <v>1.0838359469240046E-6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="7"/>
       <c r="B16" s="1">
         <v>30</v>
       </c>
@@ -1977,23 +1985,23 @@
         <v>5</v>
       </c>
       <c r="D16">
-        <v>53</v>
+        <v>3.96</v>
       </c>
       <c r="E16">
-        <f t="shared" si="4"/>
-        <v>11238.338624353559</v>
+        <f>(14/4.5)*((1/I16)*($N$2^3)/(1-$N$2)^2)^0.5</f>
+        <v>2519.7176610930123</v>
       </c>
       <c r="F16">
-        <f t="shared" si="5"/>
-        <v>1.1864149834780655E-4</v>
-      </c>
-      <c r="I16" s="10">
         <f t="shared" si="6"/>
-        <v>8.4764150943396212E-8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
+        <v>5.291598157687855E-4</v>
+      </c>
+      <c r="I16" s="6">
+        <f t="shared" si="7"/>
+        <v>1.134469696969697E-6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="7"/>
       <c r="B17" s="1">
         <v>30</v>
       </c>
@@ -2001,23 +2009,24 @@
         <v>10</v>
       </c>
       <c r="D17">
-        <v>160</v>
+        <f>D16+4.19</f>
+        <v>8.15</v>
       </c>
       <c r="E17">
-        <f t="shared" si="4"/>
-        <v>13807.31307653355</v>
+        <f>(14/4.5)*((1/I17)*($N$2^3)/(1-$N$2)^2)^0.5</f>
+        <v>2556.0426349355112</v>
       </c>
       <c r="F17">
-        <f t="shared" si="5"/>
-        <v>9.6567183342820146E-5</v>
-      </c>
-      <c r="I17" s="10">
         <f t="shared" si="6"/>
-        <v>5.615624999999999E-8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
+        <v>5.2163970784742928E-4</v>
+      </c>
+      <c r="I17" s="6">
+        <f t="shared" si="7"/>
+        <v>1.1024539877300612E-6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="7"/>
       <c r="B18" s="1">
         <v>30</v>
       </c>
@@ -2025,23 +2034,24 @@
         <v>20</v>
       </c>
       <c r="D18">
-        <v>376</v>
+        <f>D17+9.06</f>
+        <v>17.21</v>
       </c>
       <c r="E18">
-        <f t="shared" si="4"/>
-        <v>14966.770724249835</v>
+        <f>(14/4.5)*((1/I18)*($N$2^3)/(1-$N$2)^2)^0.5</f>
+        <v>2626.4233244029392</v>
       </c>
       <c r="F18">
-        <f t="shared" si="5"/>
-        <v>8.908624030519868E-5</v>
-      </c>
-      <c r="I18" s="10">
         <f t="shared" si="6"/>
-        <v>4.7792553191489357E-8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
+        <v>5.0766124445549466E-4</v>
+      </c>
+      <c r="I18" s="6">
+        <f t="shared" si="7"/>
+        <v>1.0441603718768155E-6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="7"/>
       <c r="B19" s="1">
         <v>60</v>
       </c>
@@ -2049,26 +2059,26 @@
         <v>5</v>
       </c>
       <c r="D19">
-        <v>25</v>
+        <v>4.26</v>
       </c>
       <c r="E19">
-        <f t="shared" si="4"/>
-        <v>10915.639422218195</v>
+        <f>(14/4.5)*((1/I19)*($N$2^3)/(1-$N$2)^2)^0.5</f>
+        <v>3695.9329551889496</v>
       </c>
       <c r="F19">
-        <f t="shared" si="5"/>
-        <v>1.2214889863615367E-4</v>
-      </c>
-      <c r="I19" s="10">
         <f t="shared" si="6"/>
-        <v>8.9849999999999987E-8</v>
+        <v>3.6075690481922399E-4</v>
+      </c>
+      <c r="I19" s="6">
+        <f t="shared" si="7"/>
+        <v>5.2728873239436616E-7</v>
       </c>
       <c r="J19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
+    <row r="20" spans="1:15">
+      <c r="A20" s="7"/>
       <c r="B20" s="1">
         <v>60</v>
       </c>
@@ -2076,46 +2086,47 @@
         <v>10</v>
       </c>
       <c r="D20">
-        <v>76</v>
+        <f>D19+4.65</f>
+        <v>8.91</v>
       </c>
       <c r="E20">
-        <f t="shared" si="4"/>
-        <v>13457.704101136407</v>
+        <f>(14/4.5)*((1/I20)*($N$2^3)/(1-$N$2)^2)^0.5</f>
+        <v>3779.5764916395187</v>
       </c>
       <c r="F20">
-        <f t="shared" si="5"/>
-        <v>9.9075839631571541E-5</v>
-      </c>
-      <c r="I20" s="10">
         <f t="shared" si="6"/>
-        <v>5.911184210526315E-8</v>
+        <v>3.5277321051252361E-4</v>
+      </c>
+      <c r="I20" s="6">
+        <f t="shared" si="7"/>
+        <v>5.042087542087541E-7</v>
       </c>
       <c r="J20">
         <v>15</v>
       </c>
       <c r="K20">
         <f>E4</f>
-        <v>15735.228330435441</v>
+        <v>4275.1308539707652</v>
       </c>
       <c r="L20">
         <f>E15</f>
-        <v>11692.988652832812</v>
+        <v>2577.9028966665578</v>
       </c>
       <c r="M20">
         <f>E26</f>
-        <v>9032.4309448033782</v>
+        <v>8638.535692433974</v>
       </c>
       <c r="N20">
         <f>E37</f>
-        <v>20253.09658522244</v>
+        <v>2191.9788992218937</v>
       </c>
       <c r="O20">
         <f>E48</f>
-        <v>5174.5906574606406</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
+        <v>3416.8589193572693</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="19" thickBot="1">
+      <c r="A21" s="8"/>
       <c r="B21" s="2">
         <v>60</v>
       </c>
@@ -2123,71 +2134,72 @@
         <v>20</v>
       </c>
       <c r="D21" s="3">
-        <v>179</v>
+        <f>D20+8.86</f>
+        <v>17.77</v>
       </c>
       <c r="E21">
-        <f t="shared" si="4"/>
-        <v>14604.130215546298</v>
+        <f>(14/4.5)*((1/I21)*($N$2^3)/(1-$N$2)^2)^0.5</f>
+        <v>3774.2703308150312</v>
       </c>
       <c r="F21">
-        <f t="shared" si="5"/>
-        <v>9.1298373381660326E-5</v>
-      </c>
-      <c r="I21" s="10">
         <f t="shared" si="6"/>
-        <v>5.0195530726256978E-8</v>
+        <v>3.5326916634649433E-4</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" si="7"/>
+        <v>5.0562746201463129E-7</v>
       </c>
       <c r="J21">
         <v>30</v>
       </c>
       <c r="K21">
         <f>E7</f>
-        <v>11693.707960274893</v>
+        <v>3174.5222627065123</v>
       </c>
       <c r="L21">
         <f>E18</f>
-        <v>14966.770724249835</v>
+        <v>2626.4233244029392</v>
       </c>
       <c r="M21">
         <f>E29</f>
-        <v>8692.3169884030285</v>
+        <v>9978.4315391575619</v>
       </c>
       <c r="N21">
         <f>E40</f>
-        <v>18788.038811576902</v>
+        <v>3005.2719921644389</v>
       </c>
       <c r="O21">
         <f>E51</f>
-        <v>5087.6165529518476</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I22" s="10"/>
+        <v>2982.5834637063231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="I22" s="6"/>
       <c r="J22">
         <v>60</v>
       </c>
       <c r="K22">
         <f>E10</f>
-        <v>11250.090611072155</v>
+        <v>2691.5510755898313</v>
       </c>
       <c r="L22">
         <f>E21</f>
-        <v>14604.130215546298</v>
+        <v>3774.2703308150312</v>
       </c>
       <c r="M22">
         <f>E32</f>
-        <v>8505.3635871219722</v>
+        <v>9549.8484160378066</v>
       </c>
       <c r="N22">
         <f>E43</f>
-        <v>18318.26349783648</v>
+        <v>4370.3472167026066</v>
       </c>
       <c r="O22">
         <f>E54</f>
-        <v>4999.1295149716161</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+        <v>3208.7803857100153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -2206,14 +2218,14 @@
       <c r="F23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="10"/>
+      <c r="I23" s="6"/>
       <c r="J23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>21</v>
+    <row r="24" spans="1:15">
+      <c r="A24" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="B24" s="1">
         <v>15</v>
@@ -2222,46 +2234,46 @@
         <v>5</v>
       </c>
       <c r="D24">
-        <v>29</v>
+        <v>75.53</v>
       </c>
       <c r="E24">
         <f>(14/4.5)*((1/I24)*($O$2^3)/(1-$O$2)^2)^0.5</f>
-        <v>6827.8760040896896</v>
+        <v>8591.0369621559839</v>
       </c>
       <c r="F24">
         <f>6/(4.5*E24)</f>
-        <v>1.9527790670696235E-4</v>
-      </c>
-      <c r="I24" s="10">
+        <v>1.5520051178999044E-4</v>
+      </c>
+      <c r="I24" s="6">
         <f>($K$2 *0.3* C24) / (2 * B24 * D24)</f>
-        <v>3.0982758620689653E-7</v>
+        <v>1.1895935389911291E-7</v>
       </c>
       <c r="J24">
         <v>5</v>
       </c>
       <c r="K24">
         <f>E8</f>
-        <v>11445.080702219517</v>
+        <v>2662.3762348449786</v>
       </c>
       <c r="L24">
         <f>E19</f>
-        <v>10915.639422218195</v>
+        <v>3695.9329551889496</v>
       </c>
       <c r="M24">
         <f>E30</f>
-        <v>6211.4393285996812</v>
+        <v>9438.1745177478897</v>
       </c>
       <c r="N24">
         <f>E41</f>
-        <v>19132.802225293181</v>
+        <v>4322.3726876051105</v>
       </c>
       <c r="O24">
         <f>E52</f>
-        <v>3778.9867052622412</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
+        <v>3164.9724548494082</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="7"/>
       <c r="B25" s="1">
         <v>15</v>
       </c>
@@ -2269,46 +2281,47 @@
         <v>10</v>
       </c>
       <c r="D25">
-        <v>87</v>
+        <f>D24+79.02</f>
+        <v>154.55000000000001</v>
       </c>
       <c r="E25">
-        <f t="shared" ref="E25:E32" si="7">(14/4.5)*((1/I25)*($O$2^3)/(1-$O$2)^2)^0.5</f>
-        <v>8362.406118506542</v>
+        <f t="shared" ref="E25:E32" si="8">(14/4.5)*((1/I25)*($O$2^3)/(1-$O$2)^2)^0.5</f>
+        <v>8689.7113807244405</v>
       </c>
       <c r="F25">
-        <f t="shared" ref="F25:F32" si="8">6/(4.5*E25)</f>
-        <v>1.5944374315695828E-4</v>
-      </c>
-      <c r="I25" s="10">
-        <f t="shared" ref="I25:I32" si="9">($K$2 *0.3* C25) / (2 * B25 * D25)</f>
-        <v>2.0655172413793102E-7</v>
+        <f t="shared" ref="F25:F32" si="9">6/(4.5*E25)</f>
+        <v>1.5343816093719057E-4</v>
+      </c>
+      <c r="I25" s="6">
+        <f t="shared" ref="I25:I32" si="10">($K$2 *0.3* C25) / (2 * B25 * D25)</f>
+        <v>1.1627305079262373E-7</v>
       </c>
       <c r="J25">
         <v>10</v>
       </c>
       <c r="K25">
         <f>E9</f>
-        <v>11210.685619208896</v>
+        <v>2666.4193294063225</v>
       </c>
       <c r="L25">
         <f>E20</f>
-        <v>13457.704101136407</v>
+        <v>3779.5764916395187</v>
       </c>
       <c r="M25">
         <f>E31</f>
-        <v>7815.8897559428151</v>
+        <v>9597.3108808859342</v>
       </c>
       <c r="N25">
         <f>E42</f>
-        <v>18318.26349783648</v>
+        <v>4415.1029095284566</v>
       </c>
       <c r="O25">
         <f>E53</f>
-        <v>4628.2945863269288</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
+        <v>3197.8846653337669</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="7"/>
       <c r="B26" s="1">
         <v>15</v>
       </c>
@@ -2316,46 +2329,47 @@
         <v>20</v>
       </c>
       <c r="D26">
-        <v>203</v>
+        <f>D25+150.92</f>
+        <v>305.47000000000003</v>
       </c>
       <c r="E26">
-        <f t="shared" si="7"/>
-        <v>9032.4309448033782</v>
+        <f t="shared" si="8"/>
+        <v>8638.535692433974</v>
       </c>
       <c r="F26">
-        <f t="shared" si="8"/>
-        <v>1.4761622219768413E-4</v>
-      </c>
-      <c r="I26" s="10">
         <f t="shared" si="9"/>
-        <v>1.7704433497536942E-7</v>
+        <v>1.5434714641523423E-4</v>
+      </c>
+      <c r="I26" s="6">
+        <f t="shared" si="10"/>
+        <v>1.1765476151504238E-7</v>
       </c>
       <c r="J26">
         <v>20</v>
       </c>
       <c r="K26">
         <f>E10</f>
-        <v>11250.090611072155</v>
+        <v>2691.5510755898313</v>
       </c>
       <c r="L26">
         <f>E21</f>
-        <v>14604.130215546298</v>
+        <v>3774.2703308150312</v>
       </c>
       <c r="M26">
         <f>E32</f>
-        <v>8505.3635871219722</v>
+        <v>9549.8484160378066</v>
       </c>
       <c r="N26">
         <f>E43</f>
-        <v>18318.26349783648</v>
+        <v>4370.3472167026066</v>
       </c>
       <c r="O26">
         <f>E54</f>
-        <v>4999.1295149716161</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
+        <v>3208.7803857100153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="7"/>
       <c r="B27" s="1">
         <v>30</v>
       </c>
@@ -2363,23 +2377,23 @@
         <v>5</v>
       </c>
       <c r="D27">
-        <v>13</v>
+        <v>50.8</v>
       </c>
       <c r="E27">
-        <f t="shared" si="7"/>
-        <v>6465.0710290463494</v>
+        <f t="shared" si="8"/>
+        <v>9963.9766053914173</v>
       </c>
       <c r="F27">
-        <f t="shared" si="8"/>
-        <v>2.0623645546087851E-4</v>
-      </c>
-      <c r="I27" s="10">
         <f t="shared" si="9"/>
-        <v>3.4557692307692304E-7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
+        <v>1.3381538176352991E-4</v>
+      </c>
+      <c r="I27" s="6">
+        <f t="shared" si="10"/>
+        <v>8.8435039370078733E-8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="7"/>
       <c r="B28" s="1">
         <v>30</v>
       </c>
@@ -2387,23 +2401,24 @@
         <v>10</v>
       </c>
       <c r="D28">
-        <v>40</v>
+        <f>D27+49.7</f>
+        <v>100.5</v>
       </c>
       <c r="E28">
-        <f t="shared" si="7"/>
-        <v>8018.9336918814479</v>
+        <f t="shared" si="8"/>
+        <v>9909.890964034199</v>
       </c>
       <c r="F28">
-        <f t="shared" si="8"/>
-        <v>1.6627314610210962E-4</v>
-      </c>
-      <c r="I28" s="10">
         <f t="shared" si="9"/>
-        <v>2.2462499999999996E-7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
+        <v>1.3454571177143901E-4</v>
+      </c>
+      <c r="I28" s="6">
+        <f t="shared" si="10"/>
+        <v>8.9402985074626854E-8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="7"/>
       <c r="B29" s="1">
         <v>30</v>
       </c>
@@ -2411,23 +2426,24 @@
         <v>20</v>
       </c>
       <c r="D29">
-        <v>94</v>
+        <f>D28+103.29</f>
+        <v>203.79000000000002</v>
       </c>
       <c r="E29">
-        <f t="shared" si="7"/>
-        <v>8692.3169884030285</v>
+        <f t="shared" si="8"/>
+        <v>9978.4315391575619</v>
       </c>
       <c r="F29">
-        <f t="shared" si="8"/>
-        <v>1.5339216633634251E-4</v>
-      </c>
-      <c r="I29" s="10">
         <f t="shared" si="9"/>
-        <v>1.9117021276595743E-7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
+        <v>1.3362153441661044E-4</v>
+      </c>
+      <c r="I29" s="6">
+        <f t="shared" si="10"/>
+        <v>8.8179007802149251E-8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="7"/>
       <c r="B30" s="1">
         <v>60</v>
       </c>
@@ -2435,23 +2451,23 @@
         <v>5</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>22.79</v>
       </c>
       <c r="E30">
-        <f t="shared" si="7"/>
-        <v>6211.4393285996812</v>
+        <f t="shared" si="8"/>
+        <v>9438.1745177478897</v>
       </c>
       <c r="F30">
-        <f t="shared" si="8"/>
-        <v>2.1465770859166108E-4</v>
-      </c>
-      <c r="I30" s="10">
         <f t="shared" si="9"/>
-        <v>3.7437499999999996E-7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
+        <v>1.4127025632192799E-4</v>
+      </c>
+      <c r="I30" s="6">
+        <f t="shared" si="10"/>
+        <v>9.8562966213251426E-8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="7"/>
       <c r="B31" s="1">
         <v>60</v>
       </c>
@@ -2459,23 +2475,24 @@
         <v>10</v>
       </c>
       <c r="D31">
-        <v>19</v>
+        <f>D30+24.34</f>
+        <v>47.129999999999995</v>
       </c>
       <c r="E31">
-        <f t="shared" si="7"/>
-        <v>7815.8897559428151</v>
+        <f t="shared" si="8"/>
+        <v>9597.3108808859342</v>
       </c>
       <c r="F31">
-        <f t="shared" si="8"/>
-        <v>1.7059264843385653E-4</v>
-      </c>
-      <c r="I31" s="10">
         <f t="shared" si="9"/>
-        <v>2.364473684210526E-7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
+        <v>1.3892780486967536E-4</v>
+      </c>
+      <c r="I31" s="6">
+        <f t="shared" si="10"/>
+        <v>9.5321451304901333E-8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="19" thickBot="1">
+      <c r="A32" s="8"/>
       <c r="B32" s="2">
         <v>60</v>
       </c>
@@ -2483,25 +2500,26 @@
         <v>20</v>
       </c>
       <c r="D32" s="3">
-        <v>45</v>
+        <f>D31+46.2</f>
+        <v>93.33</v>
       </c>
       <c r="E32">
-        <f t="shared" si="7"/>
-        <v>8505.3635871219722</v>
+        <f t="shared" si="8"/>
+        <v>9549.8484160378066</v>
       </c>
       <c r="F32">
-        <f t="shared" si="8"/>
-        <v>1.5676382551736438E-4</v>
-      </c>
-      <c r="I32" s="10">
         <f t="shared" si="9"/>
-        <v>1.9966666666666664E-7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I33" s="10"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.3961827196064835E-4</v>
+      </c>
+      <c r="I32" s="6">
+        <f t="shared" si="10"/>
+        <v>9.627129540340725E-8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -2520,10 +2538,10 @@
       <c r="F34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I34" s="10"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B35" s="1">
@@ -2533,23 +2551,23 @@
         <v>5</v>
       </c>
       <c r="D35">
-        <v>188</v>
+        <v>4.07</v>
       </c>
       <c r="E35">
         <f>(14/4.5)*((1/I35)*($P$2^3)/(1-$P$2)^2)^0.5</f>
-        <v>20239.643846052793</v>
+        <v>2202.1474039292834</v>
       </c>
       <c r="F35">
         <f>6/(4.5*E35)</f>
-        <v>6.5877312045358187E-5</v>
-      </c>
-      <c r="I35" s="10">
+        <v>6.0546961159560508E-4</v>
+      </c>
+      <c r="I35" s="6">
         <f>($K$2 *0.3* C35) / (2 * B35 * D35)</f>
-        <v>4.7792553191489357E-8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="6"/>
+        <v>2.2076167076167073E-6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="7"/>
       <c r="B36" s="1">
         <v>15</v>
       </c>
@@ -2557,23 +2575,24 @@
         <v>10</v>
       </c>
       <c r="D36">
-        <v>372</v>
+        <f>D35+3.79</f>
+        <v>7.86</v>
       </c>
       <c r="E36">
-        <f t="shared" ref="E36:E43" si="10">(14/4.5)*((1/I36)*($P$2^3)/(1-$P$2)^2)^0.5</f>
-        <v>20131.698309203195</v>
+        <f t="shared" ref="E36:E42" si="11">(14/4.5)*((1/I36)*($P$2^3)/(1-$P$2)^2)^0.5</f>
+        <v>2163.9412032304035</v>
       </c>
       <c r="F36">
-        <f t="shared" ref="F36:F43" si="11">6/(4.5*E36)</f>
-        <v>6.623054413267263E-5</v>
-      </c>
-      <c r="I36" s="10">
-        <f t="shared" ref="I36:I43" si="12">($K$2 *0.3* C36) / (2 * B36 * D36)</f>
-        <v>4.8306451612903218E-8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="6"/>
+        <f t="shared" ref="F36:F42" si="12">6/(4.5*E36)</f>
+        <v>6.1615968647525589E-4</v>
+      </c>
+      <c r="I36" s="6">
+        <f t="shared" ref="I36:I43" si="13">($K$2 *0.3* C36) / (2 * B36 * D36)</f>
+        <v>2.2862595419847322E-6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="7"/>
       <c r="B37" s="1">
         <v>15</v>
       </c>
@@ -2581,23 +2600,24 @@
         <v>20</v>
       </c>
       <c r="D37">
-        <v>753</v>
+        <f>D36+8.27</f>
+        <v>16.13</v>
       </c>
       <c r="E37">
-        <f t="shared" si="10"/>
-        <v>20253.09658522244</v>
+        <f t="shared" si="11"/>
+        <v>2191.9788992218937</v>
       </c>
       <c r="F37">
-        <f t="shared" si="11"/>
-        <v>6.5833554277630444E-5</v>
-      </c>
-      <c r="I37" s="10">
         <f t="shared" si="12"/>
-        <v>4.7729083665338636E-8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="6"/>
+        <v>6.0827836153287728E-4</v>
+      </c>
+      <c r="I37" s="6">
+        <f t="shared" si="13"/>
+        <v>2.2281463112213266E-6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="7"/>
       <c r="B38" s="1">
         <v>30</v>
       </c>
@@ -2605,23 +2625,23 @@
         <v>5</v>
       </c>
       <c r="D38">
-        <v>80</v>
+        <v>3.67</v>
       </c>
       <c r="E38">
-        <f t="shared" si="10"/>
-        <v>18671.703087373473</v>
+        <f t="shared" si="11"/>
+        <v>2957.3124463434524</v>
       </c>
       <c r="F38">
-        <f t="shared" si="11"/>
-        <v>7.140930460890763E-5</v>
-      </c>
-      <c r="I38" s="10">
         <f t="shared" si="12"/>
-        <v>5.615624999999999E-8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="6"/>
+        <v>4.5085981191535029E-4</v>
+      </c>
+      <c r="I38" s="6">
+        <f t="shared" si="13"/>
+        <v>1.2241144414168936E-6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="7"/>
       <c r="B39" s="1">
         <v>30</v>
       </c>
@@ -2629,23 +2649,24 @@
         <v>10</v>
       </c>
       <c r="D39">
-        <v>161</v>
+        <f>D38+3.92</f>
+        <v>7.59</v>
       </c>
       <c r="E39">
-        <f t="shared" si="10"/>
-        <v>18729.961272895791</v>
+        <f t="shared" si="11"/>
+        <v>3007.2537081675709</v>
       </c>
       <c r="F39">
-        <f t="shared" si="11"/>
-        <v>7.1187191148270329E-5</v>
-      </c>
-      <c r="I39" s="10">
         <f t="shared" si="12"/>
-        <v>5.5807453416149061E-8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="6"/>
+        <v>4.4337241307976704E-4</v>
+      </c>
+      <c r="I39" s="6">
+        <f t="shared" si="13"/>
+        <v>1.1837944664031619E-6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="7"/>
       <c r="B40" s="1">
         <v>30</v>
       </c>
@@ -2653,23 +2674,24 @@
         <v>20</v>
       </c>
       <c r="D40">
-        <v>324</v>
+        <f>D39+7.57</f>
+        <v>15.16</v>
       </c>
       <c r="E40">
-        <f t="shared" si="10"/>
-        <v>18788.038811576902</v>
+        <f t="shared" si="11"/>
+        <v>3005.2719921644389</v>
       </c>
       <c r="F40">
-        <f t="shared" si="11"/>
-        <v>7.0967137480669549E-5</v>
-      </c>
-      <c r="I40" s="10">
         <f t="shared" si="12"/>
-        <v>5.5462962962962958E-8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="6"/>
+        <v>4.4366477869879861E-4</v>
+      </c>
+      <c r="I40" s="6">
+        <f t="shared" si="13"/>
+        <v>1.1853562005277043E-6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="7"/>
       <c r="B41" s="1">
         <v>60</v>
       </c>
@@ -2677,23 +2699,24 @@
         <v>5</v>
       </c>
       <c r="D41">
-        <v>42</v>
+        <f>3.92</f>
+        <v>3.92</v>
       </c>
       <c r="E41">
-        <f t="shared" si="10"/>
-        <v>19132.802225293181</v>
+        <f t="shared" si="11"/>
+        <v>4322.3726876051105</v>
       </c>
       <c r="F41">
-        <f t="shared" si="11"/>
-        <v>6.9688345577036985E-5</v>
-      </c>
-      <c r="I41" s="10">
         <f t="shared" si="12"/>
-        <v>5.3482142857142849E-8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="6"/>
+        <v>3.0847255192890163E-4</v>
+      </c>
+      <c r="I41" s="6">
+        <f t="shared" si="13"/>
+        <v>5.730229591836734E-7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="7"/>
       <c r="B42" s="1">
         <v>60</v>
       </c>
@@ -2701,23 +2724,24 @@
         <v>10</v>
       </c>
       <c r="D42">
-        <v>77</v>
+        <f>D41+4.26</f>
+        <v>8.18</v>
       </c>
       <c r="E42">
-        <f t="shared" si="10"/>
-        <v>18318.26349783648</v>
+        <f t="shared" si="11"/>
+        <v>4415.1029095284566</v>
       </c>
       <c r="F42">
-        <f t="shared" si="11"/>
-        <v>7.2787103072887322E-5</v>
-      </c>
-      <c r="I42" s="10">
         <f t="shared" si="12"/>
-        <v>5.8344155844155837E-8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
+        <v>3.0199371581029273E-4</v>
+      </c>
+      <c r="I42" s="6">
+        <f t="shared" si="13"/>
+        <v>5.4920537897310511E-7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="19" thickBot="1">
+      <c r="A43" s="8"/>
       <c r="B43" s="2">
         <v>60</v>
       </c>
@@ -2725,25 +2749,26 @@
         <v>20</v>
       </c>
       <c r="D43" s="3">
-        <v>154</v>
+        <f>D42+7.85</f>
+        <v>16.03</v>
       </c>
       <c r="E43">
         <f>(14/4.5)*((1/I43)*($P$2^3)/(1-$P$2)^2)^0.5</f>
-        <v>18318.26349783648</v>
+        <v>4370.3472167026066</v>
       </c>
       <c r="F43">
         <f>6/(4.5*E43)</f>
-        <v>7.2787103072887322E-5</v>
-      </c>
-      <c r="I43" s="10">
-        <f t="shared" si="12"/>
-        <v>5.8344155844155837E-8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I44" s="10"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3.0508636207155258E-4</v>
+      </c>
+      <c r="I43" s="6">
+        <f t="shared" si="13"/>
+        <v>5.6051154086088576E-7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -2762,10 +2787,10 @@
       <c r="F45" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I45" s="10"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B46" s="1">
@@ -2775,23 +2800,23 @@
         <v>5</v>
       </c>
       <c r="D46">
-        <v>8</v>
+        <v>13.44</v>
       </c>
       <c r="E46">
         <f>(14/4.5)*((1/I46)*($Q$2^3)/(1-$Q$2)^2)^0.5</f>
-        <v>3778.9867052622412</v>
+        <v>3424.5114685158633</v>
       </c>
       <c r="F46">
         <f>6/(4.5*E46)</f>
-        <v>3.5282826782022435E-4</v>
-      </c>
-      <c r="I46" s="10">
-        <f>($K$2 * 0.5*C46) / (2 * B46 * D46)</f>
-        <v>1.871875E-6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="6"/>
+        <v>3.8934993957289387E-4</v>
+      </c>
+      <c r="I46" s="6">
+        <f t="shared" ref="I46:I49" si="14">($K$2 * 0.5*C46) / (2 * B46 * D46)</f>
+        <v>1.1142113095238095E-6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="7"/>
       <c r="B47" s="1">
         <v>15</v>
       </c>
@@ -2799,23 +2824,24 @@
         <v>10</v>
       </c>
       <c r="D47">
-        <v>25</v>
+        <f>D46+13.01</f>
+        <v>26.45</v>
       </c>
       <c r="E47">
-        <f t="shared" ref="E47:E54" si="13">(14/4.5)*((1/I47)*($Q$2^3)/(1-$Q$2)^2)^0.5</f>
-        <v>4723.7333815778011</v>
+        <f t="shared" ref="E47:E54" si="15">(14/4.5)*((1/I47)*($Q$2^3)/(1-$Q$2)^2)^0.5</f>
+        <v>3397.0100441188274</v>
       </c>
       <c r="F47">
-        <f t="shared" ref="F47:F54" si="14">6/(4.5*E47)</f>
-        <v>2.8226261425617948E-4</v>
-      </c>
-      <c r="I47" s="10">
-        <f t="shared" ref="I47:I54" si="15">($K$2 * 0.5*C47) / (2 * B47 * D47)</f>
-        <v>1.198E-6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="6"/>
+        <f t="shared" ref="F47:F54" si="16">6/(4.5*E47)</f>
+        <v>3.9250202855352329E-4</v>
+      </c>
+      <c r="I47" s="6">
+        <f t="shared" si="14"/>
+        <v>1.1323251417769376E-6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="7"/>
       <c r="B48" s="1">
         <v>15</v>
       </c>
@@ -2823,23 +2849,24 @@
         <v>20</v>
       </c>
       <c r="D48">
-        <v>60</v>
+        <f>D47+27.07</f>
+        <v>53.519999999999996</v>
       </c>
       <c r="E48">
-        <f t="shared" si="13"/>
-        <v>5174.5906574606406</v>
+        <f t="shared" si="15"/>
+        <v>3416.8589193572693</v>
       </c>
       <c r="F48">
+        <f t="shared" si="16"/>
+        <v>3.902219450091141E-4</v>
+      </c>
+      <c r="I48" s="6">
         <f t="shared" si="14"/>
-        <v>2.5766933494748129E-4</v>
-      </c>
-      <c r="I48" s="10">
-        <f t="shared" si="15"/>
-        <v>9.9833333333333323E-7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="6"/>
+        <v>1.1192077727952168E-6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="7"/>
       <c r="B49" s="1">
         <v>30</v>
       </c>
@@ -2847,23 +2874,24 @@
         <v>5</v>
       </c>
       <c r="D49">
-        <v>4</v>
+        <f>5.13</f>
+        <v>5.13</v>
       </c>
       <c r="E49">
-        <f t="shared" si="13"/>
-        <v>3778.9867052622412</v>
+        <f t="shared" si="15"/>
+        <v>2992.0763473069214</v>
       </c>
       <c r="F49">
-        <f t="shared" si="14"/>
-        <v>3.5282826782022435E-4</v>
-      </c>
-      <c r="I49" s="10">
-        <f t="shared" si="15"/>
-        <v>1.871875E-6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="6"/>
+        <f t="shared" si="16"/>
+        <v>4.456214275860397E-4</v>
+      </c>
+      <c r="I49" s="6">
+        <f>($K$2 * 0.5*C49) / (2 * B49 * D49)</f>
+        <v>1.4595516569200778E-6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="7"/>
       <c r="B50" s="1">
         <v>30</v>
       </c>
@@ -2871,23 +2899,24 @@
         <v>10</v>
       </c>
       <c r="D50">
-        <v>12</v>
+        <f>D49+5.09</f>
+        <v>10.219999999999999</v>
       </c>
       <c r="E50">
-        <f t="shared" si="13"/>
-        <v>4628.2945863269288</v>
+        <f t="shared" si="15"/>
+        <v>2986.2381439937608</v>
       </c>
       <c r="F50">
-        <f t="shared" si="14"/>
-        <v>2.8808307432986519E-4</v>
-      </c>
-      <c r="I50" s="10">
-        <f t="shared" si="15"/>
-        <v>1.2479166666666666E-6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="6"/>
+        <f t="shared" si="16"/>
+        <v>4.4649263355471996E-4</v>
+      </c>
+      <c r="I50" s="6">
+        <f t="shared" ref="I47:I54" si="17">($K$2 * 0.5*C50) / (2 * B50 * D50)</f>
+        <v>1.4652641878669278E-6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="7"/>
       <c r="B51" s="1">
         <v>30</v>
       </c>
@@ -2895,23 +2924,24 @@
         <v>20</v>
       </c>
       <c r="D51">
-        <v>29</v>
+        <f>D50+10.17</f>
+        <v>20.39</v>
       </c>
       <c r="E51">
-        <f t="shared" si="13"/>
-        <v>5087.6165529518476</v>
+        <f t="shared" si="15"/>
+        <v>2982.5834637063231</v>
       </c>
       <c r="F51">
-        <f t="shared" si="14"/>
-        <v>2.6207425804520001E-4</v>
-      </c>
-      <c r="I51" s="10">
-        <f t="shared" si="15"/>
-        <v>1.0327586206896552E-6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="6"/>
+        <f t="shared" si="16"/>
+        <v>4.47039739057783E-4</v>
+      </c>
+      <c r="I51" s="6">
+        <f t="shared" si="17"/>
+        <v>1.4688572829818538E-6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="7"/>
       <c r="B52" s="1">
         <v>60</v>
       </c>
@@ -2919,23 +2949,23 @@
         <v>5</v>
       </c>
       <c r="D52">
-        <v>2</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="13"/>
-        <v>3778.9867052622412</v>
+        <v>2.87</v>
+      </c>
+      <c r="E52" s="6">
+        <f>(14/4.5)*((1/I52)*($Q$2^3)/(1-$Q$2)^2)^0.5</f>
+        <v>3164.9724548494082</v>
       </c>
       <c r="F52">
-        <f t="shared" si="14"/>
-        <v>3.5282826782022435E-4</v>
-      </c>
-      <c r="I52" s="10">
-        <f t="shared" si="15"/>
-        <v>1.871875E-6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="6"/>
+        <f t="shared" si="16"/>
+        <v>4.2127802132697369E-4</v>
+      </c>
+      <c r="I52" s="6">
+        <f t="shared" si="17"/>
+        <v>1.3044425087108012E-6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="7"/>
       <c r="B53" s="1">
         <v>60</v>
       </c>
@@ -2943,276 +2973,278 @@
         <v>10</v>
       </c>
       <c r="D53">
-        <v>6</v>
+        <f>2.87+2.99</f>
+        <v>5.86</v>
       </c>
       <c r="E53">
-        <f t="shared" si="13"/>
-        <v>4628.2945863269288</v>
+        <f t="shared" si="15"/>
+        <v>3197.8846653337669</v>
       </c>
       <c r="F53">
-        <f t="shared" si="14"/>
-        <v>2.8808307432986519E-4</v>
-      </c>
-      <c r="I53" s="10">
-        <f t="shared" si="15"/>
-        <v>1.2479166666666666E-6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
+        <f t="shared" si="16"/>
+        <v>4.1694228306203524E-4</v>
+      </c>
+      <c r="I53" s="6">
+        <f t="shared" si="17"/>
+        <v>1.2777303754266211E-6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="19" thickBot="1">
+      <c r="A54" s="8"/>
       <c r="B54" s="2">
         <v>60</v>
       </c>
       <c r="C54" s="2">
         <v>20</v>
       </c>
-      <c r="D54" s="3">
-        <v>14</v>
+      <c r="D54">
+        <f>D53+5.94</f>
+        <v>11.8</v>
       </c>
       <c r="E54">
-        <f t="shared" si="13"/>
-        <v>4999.1295149716161</v>
+        <f t="shared" si="15"/>
+        <v>3208.7803857100153</v>
       </c>
       <c r="F54">
-        <f t="shared" si="14"/>
-        <v>2.6671310061885918E-4</v>
-      </c>
-      <c r="I54" s="10">
-        <f t="shared" si="15"/>
-        <v>1.0696428571428572E-6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I55" s="9"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I56" s="9"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="16"/>
+        <v>4.1552651570397306E-4</v>
+      </c>
+      <c r="I54" s="6">
+        <f t="shared" si="17"/>
+        <v>1.2690677966101694E-6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="I55" s="5"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="I56" s="5"/>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E59" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="F59" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="6" t="s">
+    <row r="60" spans="1:9">
+      <c r="A60" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="1">
         <v>15</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="1">
         <v>5</v>
       </c>
       <c r="D60">
         <v>10</v>
       </c>
       <c r="E60">
-        <f>(14/4.5)*((1/I35)*($P$2^3)/(1-$P$2)^2)^0.5</f>
-        <v>20239.643846052793</v>
+        <f t="shared" ref="E60:E67" si="18">(14/4.5)*((1/I35)*($P$2^3)/(1-$P$2)^2)^0.5</f>
+        <v>2202.1474039292834</v>
       </c>
       <c r="F60">
-        <f>6/(4.5*E60)</f>
-        <v>6.5877312045358187E-5</v>
+        <f t="shared" ref="F60:F68" si="19">6/(4.5*E60)</f>
+        <v>6.0546961159560508E-4</v>
       </c>
       <c r="I60">
         <f>($K$2 * 0.3*C60) / (2 * B60 * D60)</f>
         <v>8.9849999999999985E-7</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="6"/>
-      <c r="B61" s="4">
+    <row r="61" spans="1:9">
+      <c r="A61" s="7"/>
+      <c r="B61" s="1">
         <v>15</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="1">
         <v>10</v>
       </c>
       <c r="D61">
         <v>20</v>
       </c>
       <c r="E61">
-        <f>(14/4.5)*((1/I36)*($P$2^3)/(1-$P$2)^2)^0.5</f>
-        <v>20131.698309203195</v>
+        <f t="shared" si="18"/>
+        <v>2163.9412032304035</v>
       </c>
       <c r="F61">
-        <f>6/(4.5*E61)</f>
-        <v>6.623054413267263E-5</v>
+        <f t="shared" si="19"/>
+        <v>6.1615968647525589E-4</v>
       </c>
       <c r="I61">
-        <f t="shared" ref="I61:I67" si="16">($K$2 * 0.3*C61) / (2 * B61 * D61)</f>
+        <f t="shared" ref="I61:I67" si="20">($K$2 * 0.3*C61) / (2 * B61 * D61)</f>
         <v>8.9849999999999985E-7</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="6"/>
-      <c r="B62" s="4">
+    <row r="62" spans="1:9">
+      <c r="A62" s="7"/>
+      <c r="B62" s="1">
         <v>15</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="1">
         <v>20</v>
       </c>
       <c r="D62">
         <v>41</v>
       </c>
       <c r="E62">
-        <f>(14/4.5)*((1/I37)*($P$2^3)/(1-$P$2)^2)^0.5</f>
-        <v>20253.09658522244</v>
+        <f t="shared" si="18"/>
+        <v>2191.9788992218937</v>
       </c>
       <c r="F62">
-        <f>6/(4.5*E62)</f>
-        <v>6.5833554277630444E-5</v>
+        <f t="shared" si="19"/>
+        <v>6.0827836153287728E-4</v>
       </c>
       <c r="I62">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>8.765853658536584E-7</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="6"/>
-      <c r="B63" s="4">
+    <row r="63" spans="1:9">
+      <c r="A63" s="7"/>
+      <c r="B63" s="1">
         <v>30</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="1">
         <v>5</v>
       </c>
       <c r="D63">
         <v>5</v>
       </c>
       <c r="E63">
-        <f>(14/4.5)*((1/I38)*($P$2^3)/(1-$P$2)^2)^0.5</f>
-        <v>18671.703087373473</v>
+        <f t="shared" si="18"/>
+        <v>2957.3124463434524</v>
       </c>
       <c r="F63">
-        <f>6/(4.5*E63)</f>
-        <v>7.140930460890763E-5</v>
+        <f t="shared" si="19"/>
+        <v>4.5085981191535029E-4</v>
       </c>
       <c r="I63">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>8.9849999999999985E-7</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="6"/>
-      <c r="B64" s="4">
+    <row r="64" spans="1:9">
+      <c r="A64" s="7"/>
+      <c r="B64" s="1">
         <v>30</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="1">
         <v>10</v>
       </c>
       <c r="D64">
         <v>10</v>
       </c>
       <c r="E64">
-        <f>(14/4.5)*((1/I39)*($P$2^3)/(1-$P$2)^2)^0.5</f>
-        <v>18729.961272895791</v>
+        <f t="shared" si="18"/>
+        <v>3007.2537081675709</v>
       </c>
       <c r="F64">
-        <f>6/(4.5*E64)</f>
-        <v>7.1187191148270329E-5</v>
+        <f t="shared" si="19"/>
+        <v>4.4337241307976704E-4</v>
       </c>
       <c r="I64">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>8.9849999999999985E-7</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="6"/>
-      <c r="B65" s="4">
+    <row r="65" spans="1:9">
+      <c r="A65" s="7"/>
+      <c r="B65" s="1">
         <v>30</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="1">
         <v>20</v>
       </c>
       <c r="D65">
         <v>20</v>
       </c>
       <c r="E65">
-        <f>(14/4.5)*((1/I40)*($P$2^3)/(1-$P$2)^2)^0.5</f>
-        <v>18788.038811576902</v>
+        <f t="shared" si="18"/>
+        <v>3005.2719921644389</v>
       </c>
       <c r="F65">
-        <f>6/(4.5*E65)</f>
-        <v>7.0967137480669549E-5</v>
+        <f t="shared" si="19"/>
+        <v>4.4366477869879861E-4</v>
       </c>
       <c r="I65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>8.9849999999999985E-7</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="6"/>
-      <c r="B66" s="4">
+    <row r="66" spans="1:9">
+      <c r="A66" s="7"/>
+      <c r="B66" s="1">
         <v>60</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="1">
         <v>5</v>
       </c>
       <c r="D66">
         <v>2</v>
       </c>
       <c r="E66">
-        <f>(14/4.5)*((1/I41)*($P$2^3)/(1-$P$2)^2)^0.5</f>
-        <v>19132.802225293181</v>
+        <f t="shared" si="18"/>
+        <v>4322.3726876051105</v>
       </c>
       <c r="F66">
-        <f>6/(4.5*E66)</f>
-        <v>6.9688345577036985E-5</v>
+        <f t="shared" si="19"/>
+        <v>3.0847255192890163E-4</v>
       </c>
       <c r="I66">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1.1231249999999999E-6</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="6"/>
-      <c r="B67" s="4">
+    <row r="67" spans="1:9">
+      <c r="A67" s="7"/>
+      <c r="B67" s="1">
         <v>60</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="1">
         <v>10</v>
       </c>
       <c r="D67">
         <v>4</v>
       </c>
       <c r="E67">
-        <f>(14/4.5)*((1/I42)*($P$2^3)/(1-$P$2)^2)^0.5</f>
-        <v>18318.26349783648</v>
+        <f t="shared" si="18"/>
+        <v>4415.1029095284566</v>
       </c>
       <c r="F67">
-        <f>6/(4.5*E67)</f>
-        <v>7.2787103072887322E-5</v>
+        <f t="shared" si="19"/>
+        <v>3.0199371581029273E-4</v>
       </c>
       <c r="I67">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1.1231249999999999E-6</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="7"/>
-      <c r="B68" s="5">
+    <row r="68" spans="1:9" ht="19" thickBot="1">
+      <c r="A68" s="8"/>
+      <c r="B68" s="2">
         <v>60</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C68" s="2">
         <v>20</v>
       </c>
       <c r="D68" s="3">
@@ -3220,251 +3252,251 @@
       </c>
       <c r="E68">
         <f>(14/4.5)*((1/I68)*($P$2^3)/(1-$P$2)^2)^0.5</f>
-        <v>4428.3832162873568</v>
+        <v>3274.6918266654607</v>
       </c>
       <c r="F68">
-        <f>6/(4.5*E68)</f>
-        <v>3.0108806492387663E-4</v>
+        <f t="shared" si="19"/>
+        <v>4.0716299545384531E-4</v>
       </c>
       <c r="I68">
         <f>($K$2 * 0.3*C68) / (2 * B68 * D68)</f>
         <v>9.9833333333333323E-7</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
+    <row r="70" spans="1:9">
+      <c r="A70" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="E70" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="F70" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B71" s="4">
+    <row r="71" spans="1:9">
+      <c r="A71" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B71" s="1">
         <v>15</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="1">
         <v>5</v>
       </c>
       <c r="D71">
         <v>7</v>
       </c>
-      <c r="E71" s="10">
+      <c r="E71" s="6">
         <f>(14/4.5)*((1/I71)*($O$2^3)/(1-$O$2)^2)^0.5</f>
-        <v>2598.4314967405044</v>
+        <v>2025.8649487679888</v>
       </c>
       <c r="F71">
         <f>6/(4.5*E71)</f>
-        <v>5.1313006904583729E-4</v>
-      </c>
-      <c r="I71" s="10">
-        <f t="shared" ref="I71:I78" si="17">($K$2 *0.5* C71) / (2 * B71 * D71)</f>
+        <v>6.5815509278848415E-4</v>
+      </c>
+      <c r="I71" s="6">
+        <f t="shared" ref="I71:I78" si="21">($K$2 *0.5* C71) / (2 * B71 * D71)</f>
         <v>2.1392857142857144E-6</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="6"/>
-      <c r="B72" s="4">
+    <row r="72" spans="1:9">
+      <c r="A72" s="7"/>
+      <c r="B72" s="1">
         <v>15</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="1">
         <v>10</v>
       </c>
       <c r="D72">
         <v>15</v>
       </c>
-      <c r="E72" s="10">
-        <f t="shared" ref="E72:E78" si="18">(14/4.5)*((1/I72)*($O$2^3)/(1-$O$2)^2)^0.5</f>
-        <v>2689.6321263165405</v>
+      <c r="E72" s="6">
+        <f t="shared" ref="E72:E78" si="22">(14/4.5)*((1/I72)*($O$2^3)/(1-$O$2)^2)^0.5</f>
+        <v>2096.9694435354781</v>
       </c>
       <c r="F72">
-        <f t="shared" ref="F72:F78" si="19">6/(4.5*E72)</f>
-        <v>4.957307433560951E-4</v>
-      </c>
-      <c r="I72" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="F72:F78" si="23">6/(4.5*E72)</f>
+        <v>6.3583822713474602E-4</v>
+      </c>
+      <c r="I72" s="6">
+        <f t="shared" si="21"/>
         <v>1.9966666666666665E-6</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="6"/>
-      <c r="B73" s="4">
+    <row r="73" spans="1:9">
+      <c r="A73" s="7"/>
+      <c r="B73" s="1">
         <v>15</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73" s="1">
         <v>20</v>
       </c>
       <c r="D73">
         <v>28</v>
       </c>
-      <c r="E73" s="10">
-        <f t="shared" si="18"/>
-        <v>2598.4314967405044</v>
+      <c r="E73" s="6">
+        <f t="shared" si="22"/>
+        <v>2025.8649487679888</v>
       </c>
       <c r="F73">
-        <f t="shared" si="19"/>
-        <v>5.1313006904583729E-4</v>
-      </c>
-      <c r="I73" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
+        <v>6.5815509278848415E-4</v>
+      </c>
+      <c r="I73" s="6">
+        <f t="shared" si="21"/>
         <v>2.1392857142857144E-6</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="6"/>
-      <c r="B74" s="4">
+    <row r="74" spans="1:9">
+      <c r="A74" s="7"/>
+      <c r="B74" s="1">
         <v>30</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C74" s="1">
         <v>5</v>
       </c>
       <c r="D74">
         <v>3</v>
       </c>
-      <c r="E74" s="10">
-        <f t="shared" si="18"/>
-        <v>2405.6801075644344</v>
+      <c r="E74" s="6">
+        <f t="shared" si="22"/>
+        <v>1875.5864889940945</v>
       </c>
       <c r="F74">
-        <f t="shared" si="19"/>
-        <v>5.5424382034036546E-4</v>
-      </c>
-      <c r="I74" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
+        <v>7.1088874928312178E-4</v>
+      </c>
+      <c r="I74" s="6">
+        <f t="shared" si="21"/>
         <v>2.4958333333333333E-6</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="6"/>
-      <c r="B75" s="4">
+    <row r="75" spans="1:9">
+      <c r="A75" s="7"/>
+      <c r="B75" s="1">
         <v>30</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75" s="1">
         <v>10</v>
       </c>
       <c r="D75">
         <v>6</v>
       </c>
-      <c r="E75" s="10">
-        <f t="shared" si="18"/>
-        <v>2405.6801075644344</v>
+      <c r="E75" s="6">
+        <f t="shared" si="22"/>
+        <v>1875.5864889940945</v>
       </c>
       <c r="F75">
-        <f t="shared" si="19"/>
-        <v>5.5424382034036546E-4</v>
-      </c>
-      <c r="I75" s="10">
+        <f t="shared" si="23"/>
+        <v>7.1088874928312178E-4</v>
+      </c>
+      <c r="I75" s="6">
         <f>($K$2 *0.5* C75) / (2 * B75 * D75)</f>
         <v>2.4958333333333333E-6</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="6"/>
-      <c r="B76" s="4">
+    <row r="76" spans="1:9">
+      <c r="A76" s="7"/>
+      <c r="B76" s="1">
         <v>30</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76" s="1">
         <v>20</v>
       </c>
       <c r="D76">
         <v>13</v>
       </c>
-      <c r="E76" s="10">
-        <f t="shared" si="18"/>
-        <v>2503.9112427544555</v>
+      <c r="E76" s="6">
+        <f t="shared" si="22"/>
+        <v>1952.172311598533</v>
       </c>
       <c r="F76">
-        <f t="shared" si="19"/>
-        <v>5.3250023825388677E-4</v>
-      </c>
-      <c r="I76" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
+        <v>6.8299981790108258E-4</v>
+      </c>
+      <c r="I76" s="6">
+        <f t="shared" si="21"/>
         <v>2.303846153846154E-6</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="6"/>
-      <c r="B77" s="4">
+    <row r="77" spans="1:9">
+      <c r="A77" s="7"/>
+      <c r="B77" s="1">
         <v>60</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="1">
         <v>5</v>
       </c>
       <c r="D77">
         <v>1</v>
       </c>
-      <c r="E77" s="10">
-        <f t="shared" si="18"/>
-        <v>1964.2295826322049</v>
+      <c r="E77" s="6">
+        <f t="shared" si="22"/>
+        <v>1531.4099554979161</v>
       </c>
       <c r="F77">
-        <f t="shared" si="19"/>
-        <v>6.7880727646234382E-4</v>
-      </c>
-      <c r="I77" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
+        <v>8.706573498144845E-4</v>
+      </c>
+      <c r="I77" s="6">
+        <f t="shared" si="21"/>
         <v>3.7437499999999999E-6</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="6"/>
-      <c r="B78" s="4">
+    <row r="78" spans="1:9">
+      <c r="A78" s="7"/>
+      <c r="B78" s="1">
         <v>60</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78" s="1">
         <v>10</v>
       </c>
       <c r="D78">
         <v>3</v>
       </c>
-      <c r="E78" s="10">
-        <f t="shared" si="18"/>
-        <v>2405.6801075644344</v>
+      <c r="E78" s="6">
+        <f t="shared" si="22"/>
+        <v>1875.5864889940945</v>
       </c>
       <c r="F78">
-        <f t="shared" si="19"/>
-        <v>5.5424382034036546E-4</v>
-      </c>
-      <c r="I78" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
+        <v>7.1088874928312178E-4</v>
+      </c>
+      <c r="I78" s="6">
+        <f t="shared" si="21"/>
         <v>2.4958333333333333E-6</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="7"/>
-      <c r="B79" s="5">
+    <row r="79" spans="1:9" ht="19" thickBot="1">
+      <c r="A79" s="8"/>
+      <c r="B79" s="2">
         <v>60</v>
       </c>
-      <c r="C79" s="5">
+      <c r="C79" s="2">
         <v>20</v>
       </c>
       <c r="D79" s="3">
         <v>6</v>
       </c>
-      <c r="E79" s="10">
+      <c r="E79" s="6">
         <f>(14/4.5)*((1/I79)*($O$2^3)/(1-$O$2)^2)^0.5</f>
-        <v>2405.6801075644344</v>
-      </c>
-      <c r="F79" s="10">
+        <v>1875.5864889940945</v>
+      </c>
+      <c r="F79" s="6">
         <f>6/(4.5*E79)</f>
-        <v>5.5424382034036546E-4</v>
-      </c>
-      <c r="I79" s="10">
+        <v>7.1088874928312178E-4</v>
+      </c>
+      <c r="I79" s="6">
         <f>($K$2 *0.5* C79) / (2 * B79 * D79)</f>
         <v>2.4958333333333333E-6</v>
       </c>
@@ -3666,11 +3698,30 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AECDE084-617F-4D2A-B8E9-2FBA878BC3EC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AECDE084-617F-4D2A-B8E9-2FBA878BC3EC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ddabc1ff-5d39-4d4f-965f-4e789ed3ba25"/>
+    <ds:schemaRef ds:uri="ce592f2c-e436-4341-8f23-46a17107df7d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58E56711-34A9-45E8-8E68-9034837D9708}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58E56711-34A9-45E8-8E68-9034837D9708}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/2024/chemical-engineering/surface-area/粉体　表.xlsx
+++ b/2024/chemical-engineering/surface-area/粉体　表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nami/Git/experimental-data/2024/chemical-engineering/surface-area/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25FEC75-9338-C94A-AE9E-58189A58DB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F1B52E-5ACB-C149-8498-D73DD16251DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17140" yWindow="860" windowWidth="17060" windowHeight="21380" xr2:uid="{02EC7604-79C8-4E34-A7B7-A07661B8D7F9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
   <si>
     <t>ε</t>
     <phoneticPr fontId="1"/>
@@ -114,13 +114,7 @@
     <t>実測値</t>
   </si>
   <si>
-    <t>２回目</t>
-  </si>
-  <si>
     <t>ε3</t>
-  </si>
-  <si>
-    <t>ε5</t>
   </si>
 </sst>
 </file>
@@ -1455,8 +1449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB067BD-CFE4-4BB0-A3EF-1115B4848CEB}">
   <dimension ref="A1:X79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2:X2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="119" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -1599,7 +1593,7 @@
         <v>67.81</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E10" si="2">(14/4.5)*((1/I3)*($M$2^3)/(1-$M$2)^2)^0.5</f>
+        <f t="shared" ref="E3:E9" si="2">(14/4.5)*((1/I3)*($M$2^3)/(1-$M$2)^2)^0.5</f>
         <v>4273.3981503976802</v>
       </c>
       <c r="F3">
@@ -1900,7 +1894,7 @@
         <v>8.07</v>
       </c>
       <c r="E13">
-        <f>(14/4.5)*((1/I13)*($N$2^3)/(1-$N$2)^2)^0.5</f>
+        <f t="shared" ref="E13:E21" si="6">(14/4.5)*((1/I13)*($N$2^3)/(1-$N$2)^2)^0.5</f>
         <v>2543.4667031188937</v>
       </c>
       <c r="F13">
@@ -1932,15 +1926,15 @@
         <v>16.490000000000002</v>
       </c>
       <c r="E14">
-        <f>(14/4.5)*((1/I14)*($N$2^3)/(1-$N$2)^2)^0.5</f>
+        <f t="shared" si="6"/>
         <v>2570.8966550926725</v>
       </c>
       <c r="F14">
-        <f t="shared" ref="F14:F21" si="6">6/(4.5*E14)</f>
+        <f t="shared" ref="F14:F21" si="7">6/(4.5*E14)</f>
         <v>5.1862579955990926E-4</v>
       </c>
       <c r="I14" s="6">
-        <f t="shared" ref="I14:I21" si="7">($K$2 *0.3* C14) / (2 * B14 * D14)</f>
+        <f t="shared" ref="I14:I21" si="8">($K$2 *0.3* C14) / (2 * B14 * D14)</f>
         <v>1.0897513644633108E-6</v>
       </c>
       <c r="K14">
@@ -1964,15 +1958,15 @@
         <v>33.160000000000004</v>
       </c>
       <c r="E15">
-        <f>(14/4.5)*((1/I15)*($N$2^3)/(1-$N$2)^2)^0.5</f>
+        <f t="shared" si="6"/>
         <v>2577.9028966665578</v>
       </c>
       <c r="F15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.1721627492542252E-4</v>
       </c>
       <c r="I15" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.0838359469240046E-6</v>
       </c>
     </row>
@@ -1988,15 +1982,15 @@
         <v>3.96</v>
       </c>
       <c r="E16">
-        <f>(14/4.5)*((1/I16)*($N$2^3)/(1-$N$2)^2)^0.5</f>
+        <f t="shared" si="6"/>
         <v>2519.7176610930123</v>
       </c>
       <c r="F16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.291598157687855E-4</v>
       </c>
       <c r="I16" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.134469696969697E-6</v>
       </c>
     </row>
@@ -2013,15 +2007,15 @@
         <v>8.15</v>
       </c>
       <c r="E17">
-        <f>(14/4.5)*((1/I17)*($N$2^3)/(1-$N$2)^2)^0.5</f>
+        <f t="shared" si="6"/>
         <v>2556.0426349355112</v>
       </c>
       <c r="F17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.2163970784742928E-4</v>
       </c>
       <c r="I17" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1024539877300612E-6</v>
       </c>
     </row>
@@ -2038,15 +2032,15 @@
         <v>17.21</v>
       </c>
       <c r="E18">
-        <f>(14/4.5)*((1/I18)*($N$2^3)/(1-$N$2)^2)^0.5</f>
+        <f t="shared" si="6"/>
         <v>2626.4233244029392</v>
       </c>
       <c r="F18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.0766124445549466E-4</v>
       </c>
       <c r="I18" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.0441603718768155E-6</v>
       </c>
     </row>
@@ -2062,15 +2056,15 @@
         <v>4.26</v>
       </c>
       <c r="E19">
-        <f>(14/4.5)*((1/I19)*($N$2^3)/(1-$N$2)^2)^0.5</f>
+        <f t="shared" si="6"/>
         <v>3695.9329551889496</v>
       </c>
       <c r="F19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.6075690481922399E-4</v>
       </c>
       <c r="I19" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2728873239436616E-7</v>
       </c>
       <c r="J19" t="s">
@@ -2090,15 +2084,15 @@
         <v>8.91</v>
       </c>
       <c r="E20">
-        <f>(14/4.5)*((1/I20)*($N$2^3)/(1-$N$2)^2)^0.5</f>
+        <f t="shared" si="6"/>
         <v>3779.5764916395187</v>
       </c>
       <c r="F20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.5277321051252361E-4</v>
       </c>
       <c r="I20" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.042087542087541E-7</v>
       </c>
       <c r="J20">
@@ -2138,15 +2132,15 @@
         <v>17.77</v>
       </c>
       <c r="E21">
-        <f>(14/4.5)*((1/I21)*($N$2^3)/(1-$N$2)^2)^0.5</f>
+        <f t="shared" si="6"/>
         <v>3774.2703308150312</v>
       </c>
       <c r="F21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.5326916634649433E-4</v>
       </c>
       <c r="I21" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.0562746201463129E-7</v>
       </c>
       <c r="J21">
@@ -2225,7 +2219,7 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="1">
         <v>15</v>
@@ -2285,15 +2279,15 @@
         <v>154.55000000000001</v>
       </c>
       <c r="E25">
-        <f t="shared" ref="E25:E32" si="8">(14/4.5)*((1/I25)*($O$2^3)/(1-$O$2)^2)^0.5</f>
+        <f t="shared" ref="E25:E32" si="9">(14/4.5)*((1/I25)*($O$2^3)/(1-$O$2)^2)^0.5</f>
         <v>8689.7113807244405</v>
       </c>
       <c r="F25">
-        <f t="shared" ref="F25:F32" si="9">6/(4.5*E25)</f>
+        <f t="shared" ref="F25:F32" si="10">6/(4.5*E25)</f>
         <v>1.5343816093719057E-4</v>
       </c>
       <c r="I25" s="6">
-        <f t="shared" ref="I25:I32" si="10">($K$2 *0.3* C25) / (2 * B25 * D25)</f>
+        <f t="shared" ref="I25:I32" si="11">($K$2 *0.3* C25) / (2 * B25 * D25)</f>
         <v>1.1627305079262373E-7</v>
       </c>
       <c r="J25">
@@ -2333,15 +2327,15 @@
         <v>305.47000000000003</v>
       </c>
       <c r="E26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8638.535692433974</v>
       </c>
       <c r="F26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.5434714641523423E-4</v>
       </c>
       <c r="I26" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.1765476151504238E-7</v>
       </c>
       <c r="J26">
@@ -2380,15 +2374,15 @@
         <v>50.8</v>
       </c>
       <c r="E27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9963.9766053914173</v>
       </c>
       <c r="F27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.3381538176352991E-4</v>
       </c>
       <c r="I27" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8.8435039370078733E-8</v>
       </c>
     </row>
@@ -2405,15 +2399,15 @@
         <v>100.5</v>
       </c>
       <c r="E28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9909.890964034199</v>
       </c>
       <c r="F28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.3454571177143901E-4</v>
       </c>
       <c r="I28" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8.9402985074626854E-8</v>
       </c>
     </row>
@@ -2430,15 +2424,15 @@
         <v>203.79000000000002</v>
       </c>
       <c r="E29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9978.4315391575619</v>
       </c>
       <c r="F29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.3362153441661044E-4</v>
       </c>
       <c r="I29" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8.8179007802149251E-8</v>
       </c>
     </row>
@@ -2454,15 +2448,15 @@
         <v>22.79</v>
       </c>
       <c r="E30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9438.1745177478897</v>
       </c>
       <c r="F30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.4127025632192799E-4</v>
       </c>
       <c r="I30" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9.8562966213251426E-8</v>
       </c>
     </row>
@@ -2479,15 +2473,15 @@
         <v>47.129999999999995</v>
       </c>
       <c r="E31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9597.3108808859342</v>
       </c>
       <c r="F31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.3892780486967536E-4</v>
       </c>
       <c r="I31" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9.5321451304901333E-8</v>
       </c>
     </row>
@@ -2504,15 +2498,15 @@
         <v>93.33</v>
       </c>
       <c r="E32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9549.8484160378066</v>
       </c>
       <c r="F32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.3961827196064835E-4</v>
       </c>
       <c r="I32" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9.627129540340725E-8</v>
       </c>
     </row>
@@ -2579,15 +2573,15 @@
         <v>7.86</v>
       </c>
       <c r="E36">
-        <f t="shared" ref="E36:E42" si="11">(14/4.5)*((1/I36)*($P$2^3)/(1-$P$2)^2)^0.5</f>
+        <f t="shared" ref="E36:E42" si="12">(14/4.5)*((1/I36)*($P$2^3)/(1-$P$2)^2)^0.5</f>
         <v>2163.9412032304035</v>
       </c>
       <c r="F36">
-        <f t="shared" ref="F36:F42" si="12">6/(4.5*E36)</f>
+        <f t="shared" ref="F36:F42" si="13">6/(4.5*E36)</f>
         <v>6.1615968647525589E-4</v>
       </c>
       <c r="I36" s="6">
-        <f t="shared" ref="I36:I43" si="13">($K$2 *0.3* C36) / (2 * B36 * D36)</f>
+        <f t="shared" ref="I36:I43" si="14">($K$2 *0.3* C36) / (2 * B36 * D36)</f>
         <v>2.2862595419847322E-6</v>
       </c>
     </row>
@@ -2604,15 +2598,15 @@
         <v>16.13</v>
       </c>
       <c r="E37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2191.9788992218937</v>
       </c>
       <c r="F37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.0827836153287728E-4</v>
       </c>
       <c r="I37" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.2281463112213266E-6</v>
       </c>
     </row>
@@ -2628,15 +2622,15 @@
         <v>3.67</v>
       </c>
       <c r="E38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2957.3124463434524</v>
       </c>
       <c r="F38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.5085981191535029E-4</v>
       </c>
       <c r="I38" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.2241144414168936E-6</v>
       </c>
     </row>
@@ -2653,15 +2647,15 @@
         <v>7.59</v>
       </c>
       <c r="E39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3007.2537081675709</v>
       </c>
       <c r="F39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.4337241307976704E-4</v>
       </c>
       <c r="I39" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.1837944664031619E-6</v>
       </c>
     </row>
@@ -2678,15 +2672,15 @@
         <v>15.16</v>
       </c>
       <c r="E40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3005.2719921644389</v>
       </c>
       <c r="F40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.4366477869879861E-4</v>
       </c>
       <c r="I40" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.1853562005277043E-6</v>
       </c>
     </row>
@@ -2703,15 +2697,15 @@
         <v>3.92</v>
       </c>
       <c r="E41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4322.3726876051105</v>
       </c>
       <c r="F41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.0847255192890163E-4</v>
       </c>
       <c r="I41" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.730229591836734E-7</v>
       </c>
     </row>
@@ -2728,15 +2722,15 @@
         <v>8.18</v>
       </c>
       <c r="E42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4415.1029095284566</v>
       </c>
       <c r="F42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.0199371581029273E-4</v>
       </c>
       <c r="I42" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.4920537897310511E-7</v>
       </c>
     </row>
@@ -2761,7 +2755,7 @@
         <v>3.0508636207155258E-4</v>
       </c>
       <c r="I43" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.6051154086088576E-7</v>
       </c>
     </row>
@@ -2811,7 +2805,7 @@
         <v>3.8934993957289387E-4</v>
       </c>
       <c r="I46" s="6">
-        <f t="shared" ref="I46:I49" si="14">($K$2 * 0.5*C46) / (2 * B46 * D46)</f>
+        <f t="shared" ref="I46:I48" si="15">($K$2 * 0.5*C46) / (2 * B46 * D46)</f>
         <v>1.1142113095238095E-6</v>
       </c>
     </row>
@@ -2828,15 +2822,15 @@
         <v>26.45</v>
       </c>
       <c r="E47">
-        <f t="shared" ref="E47:E54" si="15">(14/4.5)*((1/I47)*($Q$2^3)/(1-$Q$2)^2)^0.5</f>
+        <f t="shared" ref="E47:E54" si="16">(14/4.5)*((1/I47)*($Q$2^3)/(1-$Q$2)^2)^0.5</f>
         <v>3397.0100441188274</v>
       </c>
       <c r="F47">
-        <f t="shared" ref="F47:F54" si="16">6/(4.5*E47)</f>
+        <f t="shared" ref="F47:F54" si="17">6/(4.5*E47)</f>
         <v>3.9250202855352329E-4</v>
       </c>
       <c r="I47" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.1323251417769376E-6</v>
       </c>
     </row>
@@ -2853,15 +2847,15 @@
         <v>53.519999999999996</v>
       </c>
       <c r="E48">
+        <f t="shared" si="16"/>
+        <v>3416.8589193572693</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="17"/>
+        <v>3.902219450091141E-4</v>
+      </c>
+      <c r="I48" s="6">
         <f t="shared" si="15"/>
-        <v>3416.8589193572693</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="16"/>
-        <v>3.902219450091141E-4</v>
-      </c>
-      <c r="I48" s="6">
-        <f t="shared" si="14"/>
         <v>1.1192077727952168E-6</v>
       </c>
     </row>
@@ -2878,11 +2872,11 @@
         <v>5.13</v>
       </c>
       <c r="E49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2992.0763473069214</v>
       </c>
       <c r="F49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4.456214275860397E-4</v>
       </c>
       <c r="I49" s="6">
@@ -2903,15 +2897,15 @@
         <v>10.219999999999999</v>
       </c>
       <c r="E50">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2986.2381439937608</v>
       </c>
       <c r="F50">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4.4649263355471996E-4</v>
       </c>
       <c r="I50" s="6">
-        <f t="shared" ref="I47:I54" si="17">($K$2 * 0.5*C50) / (2 * B50 * D50)</f>
+        <f t="shared" ref="I50:I54" si="18">($K$2 * 0.5*C50) / (2 * B50 * D50)</f>
         <v>1.4652641878669278E-6</v>
       </c>
     </row>
@@ -2928,15 +2922,15 @@
         <v>20.39</v>
       </c>
       <c r="E51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2982.5834637063231</v>
       </c>
       <c r="F51">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4.47039739057783E-4</v>
       </c>
       <c r="I51" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.4688572829818538E-6</v>
       </c>
     </row>
@@ -2956,11 +2950,11 @@
         <v>3164.9724548494082</v>
       </c>
       <c r="F52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4.2127802132697369E-4</v>
       </c>
       <c r="I52" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.3044425087108012E-6</v>
       </c>
     </row>
@@ -2977,15 +2971,15 @@
         <v>5.86</v>
       </c>
       <c r="E53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3197.8846653337669</v>
       </c>
       <c r="F53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4.1694228306203524E-4</v>
       </c>
       <c r="I53" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.2777303754266211E-6</v>
       </c>
     </row>
@@ -3002,15 +2996,15 @@
         <v>11.8</v>
       </c>
       <c r="E54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3208.7803857100153</v>
       </c>
       <c r="F54">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4.1552651570397306E-4</v>
       </c>
       <c r="I54" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.2690677966101694E-6</v>
       </c>
     </row>
@@ -3020,486 +3014,132 @@
     <row r="56" spans="1:9">
       <c r="I56" s="5"/>
     </row>
-    <row r="57" spans="1:9">
-      <c r="A57" t="s">
-        <v>19</v>
-      </c>
-    </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B60" s="1">
-        <v>15</v>
-      </c>
-      <c r="C60" s="1">
-        <v>5</v>
-      </c>
-      <c r="D60">
-        <v>10</v>
-      </c>
-      <c r="E60">
-        <f t="shared" ref="E60:E67" si="18">(14/4.5)*((1/I35)*($P$2^3)/(1-$P$2)^2)^0.5</f>
-        <v>2202.1474039292834</v>
-      </c>
-      <c r="F60">
-        <f t="shared" ref="F60:F68" si="19">6/(4.5*E60)</f>
-        <v>6.0546961159560508E-4</v>
-      </c>
-      <c r="I60">
-        <f>($K$2 * 0.3*C60) / (2 * B60 * D60)</f>
-        <v>8.9849999999999985E-7</v>
-      </c>
+      <c r="A60" s="7"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="7"/>
-      <c r="B61" s="1">
-        <v>15</v>
-      </c>
-      <c r="C61" s="1">
-        <v>10</v>
-      </c>
-      <c r="D61">
-        <v>20</v>
-      </c>
-      <c r="E61">
-        <f t="shared" si="18"/>
-        <v>2163.9412032304035</v>
-      </c>
-      <c r="F61">
-        <f t="shared" si="19"/>
-        <v>6.1615968647525589E-4</v>
-      </c>
-      <c r="I61">
-        <f t="shared" ref="I61:I67" si="20">($K$2 * 0.3*C61) / (2 * B61 * D61)</f>
-        <v>8.9849999999999985E-7</v>
-      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="7"/>
-      <c r="B62" s="1">
-        <v>15</v>
-      </c>
-      <c r="C62" s="1">
-        <v>20</v>
-      </c>
-      <c r="D62">
-        <v>41</v>
-      </c>
-      <c r="E62">
-        <f t="shared" si="18"/>
-        <v>2191.9788992218937</v>
-      </c>
-      <c r="F62">
-        <f t="shared" si="19"/>
-        <v>6.0827836153287728E-4</v>
-      </c>
-      <c r="I62">
-        <f t="shared" si="20"/>
-        <v>8.765853658536584E-7</v>
-      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="7"/>
-      <c r="B63" s="1">
-        <v>30</v>
-      </c>
-      <c r="C63" s="1">
-        <v>5</v>
-      </c>
-      <c r="D63">
-        <v>5</v>
-      </c>
-      <c r="E63">
-        <f t="shared" si="18"/>
-        <v>2957.3124463434524</v>
-      </c>
-      <c r="F63">
-        <f t="shared" si="19"/>
-        <v>4.5085981191535029E-4</v>
-      </c>
-      <c r="I63">
-        <f t="shared" si="20"/>
-        <v>8.9849999999999985E-7</v>
-      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="7"/>
-      <c r="B64" s="1">
-        <v>30</v>
-      </c>
-      <c r="C64" s="1">
-        <v>10</v>
-      </c>
-      <c r="D64">
-        <v>10</v>
-      </c>
-      <c r="E64">
-        <f t="shared" si="18"/>
-        <v>3007.2537081675709</v>
-      </c>
-      <c r="F64">
-        <f t="shared" si="19"/>
-        <v>4.4337241307976704E-4</v>
-      </c>
-      <c r="I64">
-        <f t="shared" si="20"/>
-        <v>8.9849999999999985E-7</v>
-      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="7"/>
-      <c r="B65" s="1">
-        <v>30</v>
-      </c>
-      <c r="C65" s="1">
-        <v>20</v>
-      </c>
-      <c r="D65">
-        <v>20</v>
-      </c>
-      <c r="E65">
-        <f t="shared" si="18"/>
-        <v>3005.2719921644389</v>
-      </c>
-      <c r="F65">
-        <f t="shared" si="19"/>
-        <v>4.4366477869879861E-4</v>
-      </c>
-      <c r="I65">
-        <f t="shared" si="20"/>
-        <v>8.9849999999999985E-7</v>
-      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="7"/>
-      <c r="B66" s="1">
-        <v>60</v>
-      </c>
-      <c r="C66" s="1">
-        <v>5</v>
-      </c>
-      <c r="D66">
-        <v>2</v>
-      </c>
-      <c r="E66">
-        <f t="shared" si="18"/>
-        <v>4322.3726876051105</v>
-      </c>
-      <c r="F66">
-        <f t="shared" si="19"/>
-        <v>3.0847255192890163E-4</v>
-      </c>
-      <c r="I66">
-        <f t="shared" si="20"/>
-        <v>1.1231249999999999E-6</v>
-      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="7"/>
-      <c r="B67" s="1">
-        <v>60</v>
-      </c>
-      <c r="C67" s="1">
-        <v>10</v>
-      </c>
-      <c r="D67">
-        <v>4</v>
-      </c>
-      <c r="E67">
-        <f t="shared" si="18"/>
-        <v>4415.1029095284566</v>
-      </c>
-      <c r="F67">
-        <f t="shared" si="19"/>
-        <v>3.0199371581029273E-4</v>
-      </c>
-      <c r="I67">
-        <f t="shared" si="20"/>
-        <v>1.1231249999999999E-6</v>
-      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
     </row>
     <row r="68" spans="1:9" ht="19" thickBot="1">
       <c r="A68" s="8"/>
-      <c r="B68" s="2">
-        <v>60</v>
-      </c>
-      <c r="C68" s="2">
-        <v>20</v>
-      </c>
-      <c r="D68" s="3">
-        <v>9</v>
-      </c>
-      <c r="E68">
-        <f>(14/4.5)*((1/I68)*($P$2^3)/(1-$P$2)^2)^0.5</f>
-        <v>3274.6918266654607</v>
-      </c>
-      <c r="F68">
-        <f t="shared" si="19"/>
-        <v>4.0716299545384531E-4</v>
-      </c>
-      <c r="I68">
-        <f>($K$2 * 0.3*C68) / (2 * B68 * D68)</f>
-        <v>9.9833333333333323E-7</v>
-      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="3"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B71" s="1">
-        <v>15</v>
-      </c>
-      <c r="C71" s="1">
-        <v>5</v>
-      </c>
-      <c r="D71">
-        <v>7</v>
-      </c>
-      <c r="E71" s="6">
-        <f>(14/4.5)*((1/I71)*($O$2^3)/(1-$O$2)^2)^0.5</f>
-        <v>2025.8649487679888</v>
-      </c>
-      <c r="F71">
-        <f>6/(4.5*E71)</f>
-        <v>6.5815509278848415E-4</v>
-      </c>
-      <c r="I71" s="6">
-        <f t="shared" ref="I71:I78" si="21">($K$2 *0.5* C71) / (2 * B71 * D71)</f>
-        <v>2.1392857142857144E-6</v>
-      </c>
+      <c r="A71" s="7"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="E71" s="6"/>
+      <c r="I71" s="6"/>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="7"/>
-      <c r="B72" s="1">
-        <v>15</v>
-      </c>
-      <c r="C72" s="1">
-        <v>10</v>
-      </c>
-      <c r="D72">
-        <v>15</v>
-      </c>
-      <c r="E72" s="6">
-        <f t="shared" ref="E72:E78" si="22">(14/4.5)*((1/I72)*($O$2^3)/(1-$O$2)^2)^0.5</f>
-        <v>2096.9694435354781</v>
-      </c>
-      <c r="F72">
-        <f t="shared" ref="F72:F78" si="23">6/(4.5*E72)</f>
-        <v>6.3583822713474602E-4</v>
-      </c>
-      <c r="I72" s="6">
-        <f t="shared" si="21"/>
-        <v>1.9966666666666665E-6</v>
-      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="E72" s="6"/>
+      <c r="I72" s="6"/>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="7"/>
-      <c r="B73" s="1">
-        <v>15</v>
-      </c>
-      <c r="C73" s="1">
-        <v>20</v>
-      </c>
-      <c r="D73">
-        <v>28</v>
-      </c>
-      <c r="E73" s="6">
-        <f t="shared" si="22"/>
-        <v>2025.8649487679888</v>
-      </c>
-      <c r="F73">
-        <f t="shared" si="23"/>
-        <v>6.5815509278848415E-4</v>
-      </c>
-      <c r="I73" s="6">
-        <f t="shared" si="21"/>
-        <v>2.1392857142857144E-6</v>
-      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="E73" s="6"/>
+      <c r="I73" s="6"/>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="7"/>
-      <c r="B74" s="1">
-        <v>30</v>
-      </c>
-      <c r="C74" s="1">
-        <v>5</v>
-      </c>
-      <c r="D74">
-        <v>3</v>
-      </c>
-      <c r="E74" s="6">
-        <f t="shared" si="22"/>
-        <v>1875.5864889940945</v>
-      </c>
-      <c r="F74">
-        <f t="shared" si="23"/>
-        <v>7.1088874928312178E-4</v>
-      </c>
-      <c r="I74" s="6">
-        <f t="shared" si="21"/>
-        <v>2.4958333333333333E-6</v>
-      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="E74" s="6"/>
+      <c r="I74" s="6"/>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="7"/>
-      <c r="B75" s="1">
-        <v>30</v>
-      </c>
-      <c r="C75" s="1">
-        <v>10</v>
-      </c>
-      <c r="D75">
-        <v>6</v>
-      </c>
-      <c r="E75" s="6">
-        <f t="shared" si="22"/>
-        <v>1875.5864889940945</v>
-      </c>
-      <c r="F75">
-        <f t="shared" si="23"/>
-        <v>7.1088874928312178E-4</v>
-      </c>
-      <c r="I75" s="6">
-        <f>($K$2 *0.5* C75) / (2 * B75 * D75)</f>
-        <v>2.4958333333333333E-6</v>
-      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="E75" s="6"/>
+      <c r="I75" s="6"/>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="7"/>
-      <c r="B76" s="1">
-        <v>30</v>
-      </c>
-      <c r="C76" s="1">
-        <v>20</v>
-      </c>
-      <c r="D76">
-        <v>13</v>
-      </c>
-      <c r="E76" s="6">
-        <f t="shared" si="22"/>
-        <v>1952.172311598533</v>
-      </c>
-      <c r="F76">
-        <f t="shared" si="23"/>
-        <v>6.8299981790108258E-4</v>
-      </c>
-      <c r="I76" s="6">
-        <f t="shared" si="21"/>
-        <v>2.303846153846154E-6</v>
-      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="E76" s="6"/>
+      <c r="I76" s="6"/>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="7"/>
-      <c r="B77" s="1">
-        <v>60</v>
-      </c>
-      <c r="C77" s="1">
-        <v>5</v>
-      </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-      <c r="E77" s="6">
-        <f t="shared" si="22"/>
-        <v>1531.4099554979161</v>
-      </c>
-      <c r="F77">
-        <f t="shared" si="23"/>
-        <v>8.706573498144845E-4</v>
-      </c>
-      <c r="I77" s="6">
-        <f t="shared" si="21"/>
-        <v>3.7437499999999999E-6</v>
-      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="E77" s="6"/>
+      <c r="I77" s="6"/>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="7"/>
-      <c r="B78" s="1">
-        <v>60</v>
-      </c>
-      <c r="C78" s="1">
-        <v>10</v>
-      </c>
-      <c r="D78">
-        <v>3</v>
-      </c>
-      <c r="E78" s="6">
-        <f t="shared" si="22"/>
-        <v>1875.5864889940945</v>
-      </c>
-      <c r="F78">
-        <f t="shared" si="23"/>
-        <v>7.1088874928312178E-4</v>
-      </c>
-      <c r="I78" s="6">
-        <f t="shared" si="21"/>
-        <v>2.4958333333333333E-6</v>
-      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="E78" s="6"/>
+      <c r="I78" s="6"/>
     </row>
     <row r="79" spans="1:9" ht="19" thickBot="1">
       <c r="A79" s="8"/>
-      <c r="B79" s="2">
-        <v>60</v>
-      </c>
-      <c r="C79" s="2">
-        <v>20</v>
-      </c>
-      <c r="D79" s="3">
-        <v>6</v>
-      </c>
-      <c r="E79" s="6">
-        <f>(14/4.5)*((1/I79)*($O$2^3)/(1-$O$2)^2)^0.5</f>
-        <v>1875.5864889940945</v>
-      </c>
-      <c r="F79" s="6">
-        <f>6/(4.5*E79)</f>
-        <v>7.1088874928312178E-4</v>
-      </c>
-      <c r="I79" s="6">
-        <f>($K$2 *0.5* C79) / (2 * B79 * D79)</f>
-        <v>2.4958333333333333E-6</v>
-      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="I79" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">
